--- a/Checklist-withFormula.xlsx
+++ b/Checklist-withFormula.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nhat Quang\Documents\Projects\Github\Lab3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D6B534-6C72-43A5-88DD-D296B27A5A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A50F427-32C6-4BCB-A012-A3403A8A64AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13245" yWindow="3120" windowWidth="11610" windowHeight="11385" xr2:uid="{8CE66FDF-E979-4E9F-A8C3-831D61C41828}"/>
+    <workbookView xWindow="5625" yWindow="1665" windowWidth="11610" windowHeight="11385" xr2:uid="{8CE66FDF-E979-4E9F-A8C3-831D61C41828}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="3" r:id="rId1"/>
@@ -332,36 +332,18 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -371,6 +353,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0D07BC3-C8CB-4F03-A421-F70981A8BB46}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -764,24 +764,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="18" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -791,7 +791,7 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
@@ -800,10 +800,10 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="1">
         <v>21127151</v>
       </c>
@@ -813,7 +813,7 @@
       <c r="E3" s="1">
         <v>21127151</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
@@ -822,10 +822,10 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1">
         <v>21127151</v>
       </c>
@@ -835,7 +835,7 @@
       <c r="E4" s="1">
         <v>21127151</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
@@ -844,10 +844,10 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="1">
         <v>21127151</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="E5" s="1">
         <v>21127151</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
@@ -866,10 +866,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19"/>
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15"/>
       <c r="C6" s="1">
         <v>21127151</v>
       </c>
@@ -879,7 +879,7 @@
       <c r="E6" s="1">
         <v>21127151</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
@@ -888,10 +888,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="1">
         <v>21127151</v>
       </c>
@@ -901,15 +901,15 @@
       <c r="E7" s="1">
         <v>21127151</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="1">
         <v>21127306</v>
       </c>
@@ -919,17 +919,17 @@
       <c r="E8" s="1">
         <v>21127306</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="1">
         <v>21127306</v>
       </c>
@@ -939,7 +939,7 @@
       <c r="E9" s="1">
         <v>21127306</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
@@ -948,10 +948,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="1">
         <v>21127306</v>
       </c>
@@ -961,7 +961,7 @@
       <c r="E10" s="1">
         <v>21127306</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
@@ -970,10 +970,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19"/>
+      <c r="A11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15"/>
       <c r="C11" s="1">
         <v>21127739</v>
       </c>
@@ -983,7 +983,7 @@
       <c r="E11" s="1">
         <v>21127739</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
@@ -992,10 +992,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="1">
         <v>21127739</v>
       </c>
@@ -1005,7 +1005,7 @@
       <c r="E12" s="1">
         <v>21127739</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1014,10 +1014,10 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="1">
         <v>21127739</v>
       </c>
@@ -1027,7 +1027,7 @@
       <c r="E13" s="1">
         <v>21127739</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
@@ -1036,22 +1036,22 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="8"/>
       <c r="J15"/>
     </row>
@@ -1068,7 +1068,7 @@
       <c r="J16"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1084,7 +1084,7 @@
       <c r="J17"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1098,7 +1098,7 @@
       <c r="J18"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1112,7 +1112,7 @@
       <c r="J19"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1126,7 +1126,7 @@
       <c r="J20"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1142,7 +1142,7 @@
       <c r="J21"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1156,7 +1156,7 @@
       <c r="J22"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1170,7 +1170,7 @@
       <c r="J23"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1215,9 +1215,7 @@
       <c r="J30"/>
     </row>
     <row r="31" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B31" s="9">
-        <v>8765</v>
-      </c>
+      <c r="B31" s="9"/>
       <c r="I31" s="8"/>
       <c r="J31"/>
     </row>
@@ -1227,6 +1225,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:H14"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:F13"/>
@@ -1243,11 +1246,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1258,7 +1256,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,24 +1270,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="18" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1299,7 +1297,7 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
@@ -1308,10 +1306,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="1">
         <v>5</v>
       </c>
@@ -1321,7 +1319,7 @@
       <c r="E3" s="1">
         <v>10</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
@@ -1330,10 +1328,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1">
         <v>5</v>
       </c>
@@ -1343,7 +1341,7 @@
       <c r="E4" s="1">
         <v>10</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
@@ -1352,10 +1350,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="1">
         <v>5</v>
       </c>
@@ -1365,7 +1363,7 @@
       <c r="E5" s="1">
         <v>10</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
@@ -1374,10 +1372,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19"/>
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
@@ -1387,7 +1385,7 @@
       <c r="E6" s="1">
         <v>10</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1396,10 +1394,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="1">
         <v>5</v>
       </c>
@@ -1409,15 +1407,15 @@
       <c r="E7" s="1">
         <v>10</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="1">
         <v>5</v>
       </c>
@@ -1427,17 +1425,17 @@
       <c r="E8" s="1">
         <v>10</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="1">
         <v>5</v>
       </c>
@@ -1447,7 +1445,7 @@
       <c r="E9" s="1">
         <v>10</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
@@ -1456,10 +1454,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -1469,7 +1467,7 @@
       <c r="E10" s="1">
         <v>10</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
@@ -1478,10 +1476,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19"/>
+      <c r="A11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15"/>
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -1491,7 +1489,7 @@
       <c r="E11" s="1">
         <v>10</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
@@ -1500,10 +1498,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="1">
         <v>5</v>
       </c>
@@ -1513,7 +1511,7 @@
       <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
@@ -1522,10 +1520,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="1">
         <v>5</v>
       </c>
@@ -1535,7 +1533,7 @@
       <c r="E13" s="1">
         <v>10</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
@@ -1544,22 +1542,22 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
@@ -1572,7 +1570,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -1586,7 +1584,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,7 +1596,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
@@ -1610,7 +1608,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1622,7 +1620,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1636,7 +1634,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -1648,7 +1646,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
@@ -1660,7 +1658,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
@@ -1712,7 +1710,7 @@
     <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <f>Students!B31</f>
-        <v>8765</v>
+        <v>0</v>
       </c>
       <c r="B30" s="10">
         <f>SUMIFS($C$3:$E$13,Students!$C$3:$E$13,Grader!$A30)+SUMIFS($H$2:$H$6,Students!$H$2:$H$6,Grader!$A30)+SUMIFS($H$9:$H$13,Students!$H$9:$H$13,Grader!$A30)+SUMIFS($C$17:$D$24,Students!$C$17:$D$24,Grader!$A30)</f>
@@ -1721,6 +1719,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:H14"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="F1:F13"/>
@@ -1737,11 +1740,6 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1864,24 +1862,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="18" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="25"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1891,7 +1889,7 @@
       <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="22"/>
+      <c r="F2" s="18"/>
       <c r="G2" s="6" t="s">
         <v>30</v>
       </c>
@@ -1900,10 +1898,10 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
+      <c r="B3" s="15"/>
       <c r="C3" s="1">
         <v>5</v>
       </c>
@@ -1913,7 +1911,7 @@
       <c r="E3" s="3">
         <v>10</v>
       </c>
-      <c r="F3" s="22"/>
+      <c r="F3" s="18"/>
       <c r="G3" s="6" t="s">
         <v>31</v>
       </c>
@@ -1922,10 +1920,10 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="19"/>
+      <c r="B4" s="15"/>
       <c r="C4" s="1">
         <v>5</v>
       </c>
@@ -1935,7 +1933,7 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="22"/>
+      <c r="F4" s="18"/>
       <c r="G4" s="6" t="s">
         <v>32</v>
       </c>
@@ -1944,10 +1942,10 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="1">
         <v>5</v>
       </c>
@@ -1957,7 +1955,7 @@
       <c r="E5" s="3">
         <v>10</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="6" t="s">
         <v>33</v>
       </c>
@@ -1966,10 +1964,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="19"/>
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15"/>
       <c r="C6" s="1">
         <v>5</v>
       </c>
@@ -1979,7 +1977,7 @@
       <c r="E6" s="3">
         <v>10</v>
       </c>
-      <c r="F6" s="22"/>
+      <c r="F6" s="18"/>
       <c r="G6" s="6" t="s">
         <v>34</v>
       </c>
@@ -1988,10 +1986,10 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="15"/>
       <c r="C7" s="1">
         <v>5</v>
       </c>
@@ -2001,15 +1999,15 @@
       <c r="E7" s="3">
         <v>10</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="28"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="15"/>
       <c r="C8" s="1">
         <v>5</v>
       </c>
@@ -2019,17 +2017,17 @@
       <c r="E8" s="3">
         <v>10</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="18" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="1">
         <v>5</v>
       </c>
@@ -2039,7 +2037,7 @@
       <c r="E9" s="3">
         <v>10</v>
       </c>
-      <c r="F9" s="22"/>
+      <c r="F9" s="18"/>
       <c r="G9" s="7" t="s">
         <v>14</v>
       </c>
@@ -2048,10 +2046,10 @@
       </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="1">
         <v>5</v>
       </c>
@@ -2061,7 +2059,7 @@
       <c r="E10" s="3">
         <v>10</v>
       </c>
-      <c r="F10" s="22"/>
+      <c r="F10" s="18"/>
       <c r="G10" s="7" t="s">
         <v>15</v>
       </c>
@@ -2070,10 +2068,10 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="19"/>
+      <c r="A11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="15"/>
       <c r="C11" s="1">
         <v>5</v>
       </c>
@@ -2083,7 +2081,7 @@
       <c r="E11" s="3">
         <v>10</v>
       </c>
-      <c r="F11" s="22"/>
+      <c r="F11" s="18"/>
       <c r="G11" s="7" t="s">
         <v>25</v>
       </c>
@@ -2092,10 +2090,10 @@
       </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="1">
         <v>5</v>
       </c>
@@ -2105,7 +2103,7 @@
       <c r="E12" s="3">
         <v>10</v>
       </c>
-      <c r="F12" s="22"/>
+      <c r="F12" s="18"/>
       <c r="G12" s="7" t="s">
         <v>26</v>
       </c>
@@ -2114,10 +2112,10 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="15"/>
       <c r="C13" s="1">
         <v>5</v>
       </c>
@@ -2127,7 +2125,7 @@
       <c r="E13" s="3">
         <v>10</v>
       </c>
-      <c r="F13" s="22"/>
+      <c r="F13" s="18"/>
       <c r="G13" s="7" t="s">
         <v>27</v>
       </c>
@@ -2136,22 +2134,22 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="24"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="19"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
@@ -2171,7 +2169,7 @@
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="23" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -2188,7 +2186,7 @@
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
+      <c r="A18" s="23"/>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2203,7 +2201,7 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
+      <c r="A19" s="23"/>
       <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
@@ -2218,7 +2216,7 @@
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -2233,7 +2231,7 @@
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="23" t="s">
         <v>1</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2250,7 +2248,7 @@
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
@@ -2265,7 +2263,7 @@
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
+      <c r="A23" s="23"/>
       <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
@@ -2280,7 +2278,7 @@
       <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
@@ -2296,11 +2294,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="A15:D15"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G8:H8"/>
@@ -2317,6 +2310,11 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
